--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">...Synthyroxine  [ 25 ] ug 1 tab po qd  </t>
   </si>
   <si>
-    <t xml:space="preserve">...Methimazole [  5  ] mg 1 tab po qd</t>
+    <t xml:space="preserve">...Methimazole [  5  ] mg 2  tab po tid…Indenol  [ 10  ] mg 1 tab po tid</t>
   </si>
   <si>
     <t xml:space="preserve">...Antiroid [  50 ] mg 1 tab po qd</t>
@@ -143,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -157,6 +157,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,90 +181,93 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="23.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="26.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">...Observation &amp; Follow-up without medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...With symptomatic medication</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">...Lab F/U    </t>
   </si>
@@ -37,10 +31,19 @@
     <t xml:space="preserve">...Lab F/U    TFT TUS Autoantibodies</t>
   </si>
   <si>
-    <t xml:space="preserve">...DEXA EKG CPA US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...next 검진</t>
+    <t xml:space="preserve">...GFS + CFS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...DEXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...다음방문시에 검진예정 입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...외부 검사결과 가져오시기로함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...OT : F/U : </t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
@@ -55,6 +58,9 @@
     <t xml:space="preserve">...Methimazole [  5  ] mg 2  tab po tid…Indenol  [ 10  ] mg 1 tab po tid</t>
   </si>
   <si>
+    <t xml:space="preserve">...Methimazole [  2.5  ] mg 2  tab po qd</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Antiroid [  50 ] mg 1 tab po qd</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">...Indenol [ 10  ] mg 1 tab po qd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...비대면진료 예정입니다.</t>
   </si>
 </sst>
 </file>
@@ -71,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK KR"/>
@@ -99,6 +108,12 @@
       <name val="Noto Sans CJK KR"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK KR"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,15 +163,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,94 +196,106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="26.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="38.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="9" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="10" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="13" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="14" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -20,30 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">...Lab F/U    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Lab F/U    FBS HbA1c Pl(a) ApoB +A/c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Lab F/U    TFT TUS Autoantibodies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...GFS + CFS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">...DEXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...다음방문시에 검진예정 입니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...외부 검사결과 가져오시기로함.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...OT : F/U : </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">...Obtain FBS and HbA1c tess today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Plan to following  FBS HbA1c Pl(a) ApoB cr eGFR +A/C levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...obtain a  TFT (T3,free T-4,TSH) today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Plan to continue following  TFT  Autoantibodies  TUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Plan to following DEXA in 02-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Plan to telemedicine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Specialist referral to University Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Patient education, counseling for more strict control</t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">...Synthyroxine  [ 25 ] ug 1 tab po qd  </t>
   </si>
   <si>
+    <t xml:space="preserve">...Methimazole [  5  ] mg 1  tab po qd</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Methimazole [  5  ] mg 2  tab po tid…Indenol  [ 10  ] mg 1 tab po tid</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">...Indenol [ 10  ] mg 1 tab po qd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...비대면진료 예정입니다.</t>
   </si>
 </sst>
 </file>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK KR"/>
@@ -108,12 +108,6 @@
       <name val="Noto Sans CJK KR"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK KR"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +152,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,10 +162,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,10 +189,10 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="38.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="38.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.62"/>
@@ -224,7 +214,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -234,12 +224,12 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -264,17 +254,17 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -289,15 +279,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t xml:space="preserve">...Obtain FBS and HbA1c tess today.</t>
+    <t xml:space="preserve">...Obtain FBS and HbA1c tests today.</t>
   </si>
   <si>
     <t xml:space="preserve">...Plan to following  FBS HbA1c Pl(a) ApoB cr eGFR +A/C levels.</t>
@@ -189,10 +189,10 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="38.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="38.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.62"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">...Obtain Laboratory test</t>
+  </si>
   <si>
     <t xml:space="preserve">...Obtain FBS and HbA1c tests today.</t>
   </si>
   <si>
-    <t xml:space="preserve">...Plan to following  FBS HbA1c Pl(a) ApoB cr eGFR +A/C levels.</t>
+    <t xml:space="preserve">...Plan to following  FBS HbA1c  Lpl(a) ApoB cr eGFR +A/C levels.</t>
   </si>
   <si>
     <t xml:space="preserve">...obtain a  TFT (T3,free T-4,TSH) today.</t>
@@ -37,13 +40,19 @@
     <t xml:space="preserve">...Plan to following DEXA in 02-2022</t>
   </si>
   <si>
+    <t xml:space="preserve">...Plan to following DEXA EKG ChestPA</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Plan to telemedicine.</t>
   </si>
   <si>
     <t xml:space="preserve">...Specialist referral to University Hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">...Patient education, counseling for more strict control</t>
+    <t xml:space="preserve">...Patient counseling for more strict control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
@@ -52,25 +61,53 @@
     <t xml:space="preserve">...Synthyroid  [ 25 ] ug 1 tab po qd  </t>
   </si>
   <si>
+    <t xml:space="preserve">...- Check home Bps.</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Synthyroxine  [ 25 ] ug 1 tab po qd  </t>
   </si>
   <si>
+    <t xml:space="preserve">...Outside RC result should be checked</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Methimazole [  5  ] mg 1  tab po qd</t>
   </si>
   <si>
+    <t xml:space="preserve">...Continue a low-salt and protein diet and exercise. 
+    Consider increasing walking time to 20-30 minutes 
+    To assist with weight loss.</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Methimazole [  5  ] mg 2  tab po tid…Indenol  [ 10  ] mg 1 tab po tid</t>
   </si>
   <si>
+    <t xml:space="preserve">...Continue a low-fat diet and exercise. 
+    Consider increasing walking time to 20-30 minutes 
+    To assist with weight loss.</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Methimazole [  2.5  ] mg 2  tab po qd</t>
   </si>
   <si>
+    <t xml:space="preserve">...Patient to see me again in one week</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Antiroid [  50 ] mg 1 tab po qd</t>
   </si>
   <si>
+    <t xml:space="preserve">...Mr.     to make his family aware of his current state of mind</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Camen [  5  ] mg 1 tab po qd</t>
   </si>
   <si>
     <t xml:space="preserve">...Indenol [ 10  ] mg 1 tab po qd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow-up in the clinic in 1 month. Bring a blood pressure diary to that visit. Consider adding ACE inhibitor at next visit if BP is still elevated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Methimazole [  2.5  ] mg 1  tab po qd</t>
   </si>
 </sst>
 </file>
@@ -186,104 +223,194 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="38.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="29.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t xml:space="preserve">...Obtain Laboratory test</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">...Plan to following  FBS HbA1c  Lpl(a) ApoB cr eGFR +A/C levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Plan to following  FBS HbA1c  Lp(a) ApoB cr eGFR +A/C levels.</t>
   </si>
   <si>
     <t xml:space="preserve">...obtain a  TFT (T3,free T-4,TSH) today.</t>
@@ -225,14 +228,14 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="29.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="29.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -253,162 +256,162 @@
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -20,60 +20,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t xml:space="preserve">...Obtain Laboratory test</t>
   </si>
   <si>
+    <t xml:space="preserve">...obtain a  TFT (T3,free T-4,TSH) today.</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Obtain FBS and HbA1c tests today.</t>
   </si>
   <si>
-    <t xml:space="preserve">...Plan to following  FBS HbA1c  Lpl(a) ApoB cr eGFR +A/C levels.</t>
+    <t xml:space="preserve">...Plan to continue following  TFT  Autoantibodies  TUS</t>
   </si>
   <si>
     <t xml:space="preserve">...Plan to following  FBS HbA1c  Lp(a) ApoB cr eGFR +A/C levels.</t>
   </si>
   <si>
-    <t xml:space="preserve">...obtain a  TFT (T3,free T-4,TSH) today.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Plan to continue following  TFT  Autoantibodies  TUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Plan to following DEXA in 02-2022</t>
+    <t xml:space="preserve">...Plan to telemedicine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Synthyroid  [ 25 ] ug 1 tab po qd  </t>
   </si>
   <si>
     <t xml:space="preserve">...Plan to following DEXA EKG ChestPA</t>
   </si>
   <si>
-    <t xml:space="preserve">...Plan to telemedicine.</t>
+    <t xml:space="preserve">...Synthyroxine  [ 25 ] ug 1 tab po qd  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Methimazole [  5  ] mg 1  tab po qd</t>
   </si>
   <si>
     <t xml:space="preserve">...Specialist referral to University Hospital</t>
   </si>
   <si>
+    <t xml:space="preserve">...Methimazole [  5  ] mg 2  tab po tid
+…Indenol  [ 10  ] mg 1 tab po tid</t>
+  </si>
+  <si>
     <t xml:space="preserve">...Patient counseling for more strict control</t>
   </si>
   <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Synthyroid  [ 25 ] ug 1 tab po qd  </t>
+    <t xml:space="preserve">...Antiroid [  50 ] mg 1 tab po qd</t>
   </si>
   <si>
     <t xml:space="preserve">...- Check home Bps.</t>
   </si>
   <si>
-    <t xml:space="preserve">...Synthyroxine  [ 25 ] ug 1 tab po qd  </t>
+    <t xml:space="preserve">...Camen [  5  ] mg 1 tab po qd</t>
   </si>
   <si>
     <t xml:space="preserve">...Outside RC result should be checked</t>
   </si>
   <si>
-    <t xml:space="preserve">...Methimazole [  5  ] mg 1  tab po qd</t>
+    <t xml:space="preserve">...Indenol [ 10  ] mg 1 tab po qd</t>
   </si>
   <si>
     <t xml:space="preserve">...Continue a low-salt and protein diet and exercise. 
@@ -81,33 +85,18 @@
     To assist with weight loss.</t>
   </si>
   <si>
-    <t xml:space="preserve">...Methimazole [  5  ] mg 2  tab po tid…Indenol  [ 10  ] mg 1 tab po tid</t>
-  </si>
-  <si>
     <t xml:space="preserve">...Continue a low-fat diet and exercise. 
     Consider increasing walking time to 20-30 minutes 
     To assist with weight loss.</t>
   </si>
   <si>
-    <t xml:space="preserve">...Methimazole [  2.5  ] mg 2  tab po qd</t>
-  </si>
-  <si>
     <t xml:space="preserve">...Patient to see me again in one week</t>
   </si>
   <si>
-    <t xml:space="preserve">...Antiroid [  50 ] mg 1 tab po qd</t>
-  </si>
-  <si>
     <t xml:space="preserve">...Mr.     to make his family aware of his current state of mind</t>
   </si>
   <si>
-    <t xml:space="preserve">...Camen [  5  ] mg 1 tab po qd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Indenol [ 10  ] mg 1 tab po qd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow-up in the clinic in 1 month. Bring a blood pressure diary to that visit. Consider adding ACE inhibitor at next visit if BP is still elevated.</t>
+    <t xml:space="preserve">...Methimazole [  5  ] mg 2  tab po tid…Indenol  [ 10  ] mg 1 tab po tid</t>
   </si>
   <si>
     <t xml:space="preserve">...Methimazole [  2.5  ] mg 1  tab po qd</t>
@@ -226,13 +215,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="29.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="29.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.17"/>
@@ -242,103 +231,100 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -346,74 +332,64 @@
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>27</v>
+      <c r="A20" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
+      <c r="A23" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t xml:space="preserve">...Obtain Laboratory test</t>
   </si>
@@ -85,21 +85,10 @@
     To assist with weight loss.</t>
   </si>
   <si>
-    <t xml:space="preserve">...Continue a low-fat diet and exercise. 
-    Consider increasing walking time to 20-30 minutes 
-    To assist with weight loss.</t>
-  </si>
-  <si>
     <t xml:space="preserve">...Patient to see me again in one week</t>
   </si>
   <si>
     <t xml:space="preserve">...Mr.     to make his family aware of his current state of mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Methimazole [  5  ] mg 2  tab po tid…Indenol  [ 10  ] mg 1 tab po tid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Methimazole [  2.5  ] mg 1  tab po qd</t>
   </si>
 </sst>
 </file>
@@ -215,13 +204,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="29.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="29.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.17"/>
@@ -329,7 +318,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -338,58 +327,49 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -81,8 +81,8 @@
   </si>
   <si>
     <t xml:space="preserve">...Continue a low-salt and protein diet and exercise. 
-    Consider increasing walking time to 20-30 minutes 
-    To assist with weight loss.</t>
+        Consider increasing walking time to 20-30 minutes 
+        To assist with weight loss.</t>
   </si>
   <si>
     <t xml:space="preserve">...Patient to see me again in one week</t>
@@ -204,19 +204,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="29.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="72.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -224,7 +224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -232,7 +232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -240,7 +240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -248,7 +248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -256,7 +256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
@@ -264,7 +264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>5</v>
       </c>
@@ -272,7 +272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -280,7 +280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>6</v>
       </c>
@@ -288,7 +288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
@@ -296,7 +296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
@@ -304,7 +304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>17</v>
       </c>
@@ -312,64 +312,45 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve">...Obtain Laboratory test</t>
   </si>
@@ -204,16 +204,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="72.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -316,40 +317,25 @@
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -21,21 +21,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Obtain Glucose, HbA1c </t>
-  </si>
-  <si>
-    <t xml:space="preserve">increased hunger</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Patient education, counseling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab tests are needed to evaluate patient status today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests, procedures, other laboratory studies : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialist referral(s) or consults</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “The client shows greater success with activates involving physical cueing.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Continue with POC.” (plan of care)</t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy fresh food often.
+Avoid  to “fast” foods, frozen dinners, and canned foods.
+Use spices, herbs, and sodium-free seasonings in place of salt. 
+Check for sodium on the Nutrition Facts label of food packages. 
+Rinse canned vegetables, beans, meats etc  before eating.
+Look for food labels with words like sodium free or salt free</t>
   </si>
   <si>
     <t xml:space="preserve">• Periarthritis shoulder – Pain and limitation of movements 
 • Cheiroarthropathy – Stiffness and limited mobility of fingers 
 • Neuroarthropathy • Painless unilateral swelling of foot and ankle 
 • Spinal hyperostosis – Mild back pain with preservation of back movements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight loss of 5%-10%.  
+Reduction in fat intake &lt; 30% of calories.  
+Reduction in saturated fat intake &lt; 10% of calories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your diet should contain less than 2,300 milligrams of sodium each day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase in physical activity levels. 
+The brisk walking should last for at least 30 minutes 
+and should be undertaken  at least three times a week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://owl.purdue.edu/owl/subject_specific_writing/healthcare_writing/soap_notes/soap_note_tips.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular inspection and examination of the foot at risk.
+Appropriate footwear.</t>
   </si>
 </sst>
 </file>
@@ -136,13 +176,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.62"/>
@@ -160,44 +200,74 @@
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -220,7 +290,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="36.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1" s="1"/>

--- a/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
+++ b/src/je/panse/doro/aeternum/dataxlsx/Plan9List.xlsx
@@ -21,35 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t xml:space="preserve">Patient education, counseling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab tests are needed to evaluate patient status today.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests, procedures, other laboratory studies : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialist referral(s) or consults</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “The client shows greater success with activates involving physical cueing.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Continue with POC.” (plan of care)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy fresh food often.
-Avoid  to “fast” foods, frozen dinners, and canned foods.
-Use spices, herbs, and sodium-free seasonings in place of salt. 
-Check for sodium on the Nutrition Facts label of food packages. 
-Rinse canned vegetables, beans, meats etc  before eating.
-Look for food labels with words like sodium free or salt free</t>
   </si>
   <si>
     <t xml:space="preserve">• Periarthritis shoulder – Pain and limitation of movements 
@@ -58,24 +32,64 @@
 • Spinal hyperostosis – Mild back pain with preservation of back movements</t>
   </si>
   <si>
-    <t xml:space="preserve">Weight loss of 5%-10%.  
-Reduction in fat intake &lt; 30% of calories.  
-Reduction in saturated fat intake &lt; 10% of calories.</t>
+    <t xml:space="preserve">Lab tests are needed to evaluate patient status today.</t>
   </si>
   <si>
     <t xml:space="preserve">Your diet should contain less than 2,300 milligrams of sodium each day.</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase in physical activity levels. 
-The brisk walking should last for at least 30 minutes 
-and should be undertaken  at least three times a week.</t>
+    <t xml:space="preserve">Tests, procedures, other laboratory studies : </t>
   </si>
   <si>
     <t xml:space="preserve">https://owl.purdue.edu/owl/subject_specific_writing/healthcare_writing/soap_notes/soap_note_tips.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Regular inspection and examination of the foot at risk.
-Appropriate footwear.</t>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “The client shows greater success with activates involving physical cueing.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Continue with POC.” (plan of care)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy fresh food often.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid  to “fast” foods, frozen dinners, and canned foods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use spices, herbs, and sodium-free seasonings in place of salt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for sodium on the Nutrition Facts label of food packages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinse canned vegetables, beans, meats etc  before eating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for food labels with words like sodium free or salt free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight loss of 5%-10%.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduction in fat intake &lt; 30% of calories.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduction in saturated fat intake &lt; 10% of calories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase in physical activity levels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The brisk walking should last for at least 30 minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and should be undertaken  at least three times a week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular inspection and examination of the foot at risk.</t>
   </si>
 </sst>
 </file>
@@ -150,8 +164,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,98 +194,142 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="32.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.62"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="70.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -290,16 +352,16 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="36.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="1"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
